--- a/test-phase6.xlsx
+++ b/test-phase6.xlsx
@@ -136,7 +136,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>8403</v>
+        <v>9556</v>
       </c>
     </row>
     <row r="3">
@@ -150,7 +150,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>6926</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="4">
@@ -164,7 +164,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1662</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="5">
@@ -178,7 +178,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>10250</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="6">
@@ -192,7 +192,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>9661</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="7">
@@ -206,7 +206,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>9019</v>
+        <v>6513</v>
       </c>
     </row>
     <row r="8">
@@ -220,7 +220,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>3693</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="9">
@@ -234,7 +234,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>2292</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="10">
@@ -248,7 +248,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>2298</v>
+        <v>10802</v>
       </c>
     </row>
     <row r="11">
@@ -262,7 +262,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>4379</v>
+        <v>10131</v>
       </c>
     </row>
     <row r="12">
@@ -276,7 +276,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>1839</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="13">
@@ -290,7 +290,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>5101</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="14">
@@ -304,7 +304,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>7549</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="15">
@@ -318,7 +318,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>6679</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="16">
@@ -332,7 +332,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>4722</v>
+        <v>10928</v>
       </c>
     </row>
     <row r="17">
@@ -346,7 +346,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>5185</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="18">
@@ -360,7 +360,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>4923</v>
+        <v>10244</v>
       </c>
     </row>
     <row r="19">
@@ -374,7 +374,7 @@
         <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>7282</v>
+        <v>9644</v>
       </c>
     </row>
     <row r="20">
@@ -388,7 +388,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>3715</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="21">
@@ -402,7 +402,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>1609</v>
+        <v>9613</v>
       </c>
     </row>
     <row r="22">
@@ -416,7 +416,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>6647</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="23">
@@ -430,7 +430,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>2809</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="24">
@@ -444,7 +444,7 @@
         <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>3149</v>
+        <v>10923</v>
       </c>
     </row>
     <row r="25">
@@ -458,7 +458,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>10476</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="26">
@@ -472,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>10147</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="27">
@@ -486,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>5368</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="28">
@@ -500,7 +500,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>5372</v>
+        <v>9977</v>
       </c>
     </row>
     <row r="29">
@@ -514,7 +514,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>7090</v>
+        <v>9654</v>
       </c>
     </row>
     <row r="30">
@@ -528,7 +528,7 @@
         <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>2449</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="31">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>6859</v>
+        <v>6536</v>
       </c>
     </row>
     <row r="32">
@@ -556,7 +556,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>7379</v>
+        <v>9516</v>
       </c>
     </row>
     <row r="33">
@@ -570,7 +570,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>5552</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="34">
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>10507</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="35">
@@ -598,7 +598,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>7268</v>
+        <v>10267</v>
       </c>
     </row>
     <row r="36">
@@ -612,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>6063</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="37">
@@ -626,7 +626,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>6568</v>
+        <v>6323</v>
       </c>
     </row>
     <row r="38">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1005</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="39">
@@ -654,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>3340</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="40">
@@ -668,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>7654</v>
+        <v>9696</v>
       </c>
     </row>
     <row r="41">
@@ -682,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>6029</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="42">
@@ -696,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>6488</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="43">
@@ -710,7 +710,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>9300</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="44">
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>4177</v>
+        <v>6949</v>
       </c>
     </row>
     <row r="45">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>4612</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="46">
@@ -752,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>9330</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="47">
@@ -766,7 +766,7 @@
         <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>2380</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="48">
@@ -780,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>1411</v>
+        <v>10552</v>
       </c>
     </row>
     <row r="49">
@@ -794,7 +794,7 @@
         <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>10704</v>
+        <v>10045</v>
       </c>
     </row>
     <row r="50">
@@ -808,7 +808,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>3649</v>
+        <v>9022</v>
       </c>
     </row>
     <row r="51">
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="n">
-        <v>7010</v>
+        <v>5959</v>
       </c>
     </row>
     <row r="52">
@@ -836,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>1216</v>
+        <v>10229</v>
       </c>
     </row>
     <row r="53">
@@ -850,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>9363</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>6454</v>
+        <v>8590</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>4255</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="56">
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>3162</v>
+        <v>7851</v>
       </c>
     </row>
     <row r="57">
@@ -906,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>3517</v>
+        <v>6626</v>
       </c>
     </row>
     <row r="58">
@@ -920,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="D58" t="n">
-        <v>2831</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="59">
@@ -934,7 +934,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>2966</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="60">
@@ -948,7 +948,7 @@
         <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>2943</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="61">
@@ -962,7 +962,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="n">
-        <v>8004</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="62">
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>10422</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="63">
@@ -990,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>10390</v>
+        <v>7186</v>
       </c>
     </row>
     <row r="64">
@@ -1004,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>8318</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="65">
@@ -1018,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>6171</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="66">
@@ -1032,7 +1032,7 @@
         <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>2080</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="67">
@@ -1046,7 +1046,7 @@
         <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>4373</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="68">
@@ -1060,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>9722</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="69">
@@ -1074,7 +1074,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>9373</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="70">
@@ -1088,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>10632</v>
+        <v>5507</v>
       </c>
     </row>
     <row r="71">
@@ -1102,7 +1102,7 @@
         <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>2386</v>
+        <v>9437</v>
       </c>
     </row>
     <row r="72">
@@ -1116,7 +1116,7 @@
         <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>8096</v>
+        <v>9179</v>
       </c>
     </row>
     <row r="73">
@@ -1130,7 +1130,7 @@
         <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>3824</v>
+        <v>8536</v>
       </c>
     </row>
     <row r="74">
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>10425</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="75">
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>5947</v>
+        <v>10170</v>
       </c>
     </row>
     <row r="76">
@@ -1172,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>9135</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="77">
@@ -1186,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>6617</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="78">
@@ -1200,7 +1200,7 @@
         <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>2926</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="79">
@@ -1214,7 +1214,7 @@
         <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>1146</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="80">
@@ -1228,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4459</v>
+        <v>9821</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>1738</v>
+        <v>8052</v>
       </c>
     </row>
     <row r="82">
@@ -1256,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="D82" t="n">
-        <v>1971</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="83">
@@ -1270,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>10241</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="84">
@@ -1284,7 +1284,7 @@
         <v>17</v>
       </c>
       <c r="D84" t="n">
-        <v>2014</v>
+        <v>9767</v>
       </c>
     </row>
     <row r="85">
@@ -1298,7 +1298,7 @@
         <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>9836</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="86">
@@ -1312,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>2841</v>
+        <v>6208</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>9940</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="88">
@@ -1340,7 +1340,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>10140</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="89">
@@ -1354,7 +1354,7 @@
         <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>6046</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="90">
@@ -1368,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="D90" t="n">
-        <v>5132</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="91">
@@ -1382,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="D91" t="n">
-        <v>8429</v>
+        <v>9248</v>
       </c>
     </row>
     <row r="92">
@@ -1396,7 +1396,7 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>3959</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="93">
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>5309</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="94">
@@ -1424,7 +1424,7 @@
         <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>10263</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="95">
@@ -1438,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="D95" t="n">
-        <v>7011</v>
+        <v>8308</v>
       </c>
     </row>
     <row r="96">
@@ -1452,7 +1452,7 @@
         <v>17</v>
       </c>
       <c r="D96" t="n">
-        <v>3848</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="97">
@@ -1466,7 +1466,7 @@
         <v>19</v>
       </c>
       <c r="D97" t="n">
-        <v>10075</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="98">
@@ -1480,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9666</v>
+        <v>9497</v>
       </c>
     </row>
     <row r="99">
@@ -1494,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>1329</v>
+        <v>6703</v>
       </c>
     </row>
     <row r="100">
@@ -1508,7 +1508,7 @@
         <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>5684</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="101">
@@ -1522,7 +1522,7 @@
         <v>15</v>
       </c>
       <c r="D101" t="n">
-        <v>9095</v>
+        <v>10730</v>
       </c>
     </row>
   </sheetData>

--- a/test-phase6.xlsx
+++ b/test-phase6.xlsx
@@ -136,7 +136,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>9556</v>
+        <v>9117</v>
       </c>
     </row>
     <row r="3">
@@ -150,7 +150,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3349</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="4">
@@ -164,7 +164,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2733</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="5">
@@ -178,7 +178,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>8278</v>
+        <v>6965</v>
       </c>
     </row>
     <row r="6">
@@ -192,7 +192,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>4271</v>
+        <v>7344</v>
       </c>
     </row>
     <row r="7">
@@ -206,7 +206,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>6513</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="8">
@@ -220,7 +220,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>5002</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="9">
@@ -234,7 +234,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>2841</v>
+        <v>9411</v>
       </c>
     </row>
     <row r="10">
@@ -248,7 +248,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>10802</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="11">
@@ -262,7 +262,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>10131</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="12">
@@ -276,7 +276,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>1733</v>
+        <v>8015</v>
       </c>
     </row>
     <row r="13">
@@ -290,7 +290,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>3351</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="14">
@@ -304,7 +304,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>3369</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="15">
@@ -318,7 +318,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>4673</v>
+        <v>6315</v>
       </c>
     </row>
     <row r="16">
@@ -332,7 +332,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>10928</v>
+        <v>10162</v>
       </c>
     </row>
     <row r="17">
@@ -346,7 +346,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>3971</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="18">
@@ -360,7 +360,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>10244</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="19">
@@ -374,7 +374,7 @@
         <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>9644</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="20">
@@ -388,7 +388,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>2297</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="21">
@@ -402,7 +402,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>9613</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="22">
@@ -416,7 +416,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>1640</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="23">
@@ -430,7 +430,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>5989</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="24">
@@ -444,7 +444,7 @@
         <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>10923</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="25">
@@ -458,7 +458,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>10620</v>
+        <v>10404</v>
       </c>
     </row>
     <row r="26">
@@ -472,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>7642</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="27">
@@ -486,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>6429</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="28">
@@ -500,7 +500,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>9977</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="29">
@@ -514,7 +514,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>9654</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="30">
@@ -528,7 +528,7 @@
         <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>5902</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="31">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>6536</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="32">
@@ -556,7 +556,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>9516</v>
+        <v>10702</v>
       </c>
     </row>
     <row r="33">
@@ -570,7 +570,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>1393</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="34">
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>2201</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="35">
@@ -598,7 +598,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>10267</v>
+        <v>9534</v>
       </c>
     </row>
     <row r="36">
@@ -612,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>1113</v>
+        <v>10978</v>
       </c>
     </row>
     <row r="37">
@@ -626,7 +626,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>6323</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="38">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>4708</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="39">
@@ -654,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>1886</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="40">
@@ -668,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>9696</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="41">
@@ -682,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>4019</v>
+        <v>8563</v>
       </c>
     </row>
     <row r="42">
@@ -696,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>4599</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="43">
@@ -710,7 +710,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>6630</v>
+        <v>7837</v>
       </c>
     </row>
     <row r="44">
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>6949</v>
+        <v>7204</v>
       </c>
     </row>
     <row r="45">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>2629</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="46">
@@ -752,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>5370</v>
+        <v>6455</v>
       </c>
     </row>
     <row r="47">
@@ -766,7 +766,7 @@
         <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>4411</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="48">
@@ -780,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>10552</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="49">
@@ -794,7 +794,7 @@
         <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>10045</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="50">
@@ -808,7 +808,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>9022</v>
+        <v>8860</v>
       </c>
     </row>
     <row r="51">
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="n">
-        <v>5959</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="52">
@@ -836,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>10229</v>
+        <v>8901</v>
       </c>
     </row>
     <row r="53">
@@ -850,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>1424</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>8590</v>
+        <v>9915</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>6251</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="56">
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>7851</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="57">
@@ -906,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>6626</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="58">
@@ -920,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="D58" t="n">
-        <v>5694</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="59">
@@ -934,7 +934,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>4577</v>
+        <v>7004</v>
       </c>
     </row>
     <row r="60">
@@ -948,7 +948,7 @@
         <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>4455</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="61">
@@ -962,7 +962,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="n">
-        <v>8932</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="62">
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1954</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="63">
@@ -990,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>7186</v>
+        <v>10479</v>
       </c>
     </row>
     <row r="64">
@@ -1004,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>1727</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="65">
@@ -1018,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>7677</v>
+        <v>10389</v>
       </c>
     </row>
     <row r="66">
@@ -1032,7 +1032,7 @@
         <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>2448</v>
+        <v>8693</v>
       </c>
     </row>
     <row r="67">
@@ -1046,7 +1046,7 @@
         <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>1936</v>
+        <v>9987</v>
       </c>
     </row>
     <row r="68">
@@ -1060,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>4374</v>
+        <v>10199</v>
       </c>
     </row>
     <row r="69">
@@ -1074,7 +1074,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>5909</v>
+        <v>6308</v>
       </c>
     </row>
     <row r="70">
@@ -1088,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>5507</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="71">
@@ -1102,7 +1102,7 @@
         <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>9437</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="72">
@@ -1116,7 +1116,7 @@
         <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>9179</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="73">
@@ -1130,7 +1130,7 @@
         <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>8536</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="74">
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>9765</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="75">
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>10170</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="76">
@@ -1172,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>4611</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="77">
@@ -1186,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>2369</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="78">
@@ -1200,7 +1200,7 @@
         <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>3483</v>
+        <v>5364</v>
       </c>
     </row>
     <row r="79">
@@ -1214,7 +1214,7 @@
         <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>6624</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="80">
@@ -1228,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>9821</v>
+        <v>10282</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>8052</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="82">
@@ -1256,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="D82" t="n">
-        <v>7927</v>
+        <v>9659</v>
       </c>
     </row>
     <row r="83">
@@ -1270,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>4714</v>
+        <v>8547</v>
       </c>
     </row>
     <row r="84">
@@ -1284,7 +1284,7 @@
         <v>17</v>
       </c>
       <c r="D84" t="n">
-        <v>9767</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="85">
@@ -1298,7 +1298,7 @@
         <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>1079</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="86">
@@ -1312,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>6208</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>6200</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="88">
@@ -1340,7 +1340,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>7632</v>
+        <v>10040</v>
       </c>
     </row>
     <row r="89">
@@ -1354,7 +1354,7 @@
         <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>8332</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="90">
@@ -1368,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="D90" t="n">
-        <v>2712</v>
+        <v>9419</v>
       </c>
     </row>
     <row r="91">
@@ -1382,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="D91" t="n">
-        <v>9248</v>
+        <v>10565</v>
       </c>
     </row>
     <row r="92">
@@ -1396,7 +1396,7 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>2444</v>
+        <v>9392</v>
       </c>
     </row>
     <row r="93">
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>6117</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="94">
@@ -1424,7 +1424,7 @@
         <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>4799</v>
+        <v>8554</v>
       </c>
     </row>
     <row r="95">
@@ -1438,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="D95" t="n">
-        <v>8308</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="96">
@@ -1452,7 +1452,7 @@
         <v>17</v>
       </c>
       <c r="D96" t="n">
-        <v>8254</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="97">
@@ -1466,7 +1466,7 @@
         <v>19</v>
       </c>
       <c r="D97" t="n">
-        <v>5293</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="98">
@@ -1480,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9497</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="99">
@@ -1494,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>6703</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="100">
@@ -1508,7 +1508,7 @@
         <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>3273</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="101">
@@ -1522,7 +1522,7 @@
         <v>15</v>
       </c>
       <c r="D101" t="n">
-        <v>10730</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
